--- a/Base.API/wwwroot/template_schedule.xlsx
+++ b/Base.API/wwwroot/template_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FPT\Study\Summer 2024_DoAn\SEP490\materials\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853DC6C6-481D-480A-A4AB-5213FDC87012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FD710F-032C-411A-A2F3-301987A74951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>MON</t>
   </si>
@@ -44,30 +44,9 @@
     <t>SUN</t>
   </si>
   <si>
-    <t>18/06</t>
-  </si>
-  <si>
-    <t>19/06</t>
-  </si>
-  <si>
-    <t>20/06</t>
-  </si>
-  <si>
-    <t>21/06</t>
-  </si>
-  <si>
-    <t>22/06</t>
-  </si>
-  <si>
-    <t>23/06</t>
-  </si>
-  <si>
     <t>Slot 1</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Slot 2</t>
   </si>
   <si>
@@ -89,15 +68,6 @@
     <t>Slot 8</t>
   </si>
   <si>
-    <t>SU24SE025_GSU354 at P.301 (Attended) EduNext</t>
-  </si>
-  <si>
-    <t>14/07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SU24SE025_GSU354 at P.301 </t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -167,12 +137,39 @@
     <t>1. Định dạng dữ liệu là: "Mã-lớp at Phòng-học"</t>
   </si>
   <si>
+    <t>2. Nếu không có dữ liệu, vui lòng để trống hoặc thay bằng dấu '-'</t>
+  </si>
+  <si>
+    <t>(Attended)</t>
+  </si>
+  <si>
     <t>Sample: 
- - SU24SE025_GSU354 at P.301 
+ - SU24SE025_GSU354-SEP490 at P.301 
  - SE1824-PRJ301 at NVH.222</t>
   </si>
   <si>
-    <t>2. Nếu không có dữ liệu, vui lòng để trống hoặc thay bằng dấu '-'</t>
+    <t>22/07</t>
+  </si>
+  <si>
+    <t>23/07</t>
+  </si>
+  <si>
+    <t>24/07</t>
+  </si>
+  <si>
+    <t>25/07</t>
+  </si>
+  <si>
+    <t>26/07</t>
+  </si>
+  <si>
+    <t>27/07</t>
+  </si>
+  <si>
+    <t>28/07</t>
+  </si>
+  <si>
+    <t>SU24SE025_GSU35 at P.005</t>
   </si>
 </sst>
 </file>
@@ -202,7 +199,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,6 +218,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -348,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -364,12 +367,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -389,15 +386,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -412,26 +400,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -775,7 +782,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:I11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -809,25 +816,25 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -842,82 +849,82 @@
       <c r="H3" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
+      <c r="A5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="14"/>
+      <c r="A6" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
+      <c r="A7" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
+      <c r="A9" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
+      <c r="A10" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
+      <c r="A11" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -929,400 +936,534 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:G1 B2:C2 E2:G2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:G1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="31"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="24"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
       <c r="I3" s="1"/>
       <c r="J3" s="5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="K4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
       <c r="I5" s="1"/>
       <c r="J5" s="5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="1"/>
       <c r="J6" s="5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="1"/>
       <c r="J7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="9"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="12"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="4"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="25"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="26" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="22" t="s">
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="28"/>
+    </row>
+    <row r="17" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="22"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="20" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="28"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="22"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="J15:R15"/>
+    <mergeCell ref="J16:R16"/>
+    <mergeCell ref="J17:R17"/>
+    <mergeCell ref="J18:R18"/>
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1 A8:H8 A2:A6 G2:H4 G1:H1 A7 C7:H7" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/Base.API/wwwroot/template_schedule.xlsx
+++ b/Base.API/wwwroot/template_schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FPT\Study\Summer 2024_DoAn\SEP490\materials\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FD710F-032C-411A-A2F3-301987A74951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5B62D0-CE73-453A-AA7F-5025CD29DBC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>MON</t>
   </si>
@@ -138,9 +138,6 @@
   </si>
   <si>
     <t>2. Nếu không có dữ liệu, vui lòng để trống hoặc thay bằng dấu '-'</t>
-  </si>
-  <si>
-    <t>(Attended)</t>
   </si>
   <si>
     <t>Sample: 
@@ -148,28 +145,28 @@
  - SE1824-PRJ301 at NVH.222</t>
   </si>
   <si>
-    <t>22/07</t>
-  </si>
-  <si>
-    <t>23/07</t>
-  </si>
-  <si>
-    <t>24/07</t>
-  </si>
-  <si>
-    <t>25/07</t>
-  </si>
-  <si>
-    <t>26/07</t>
-  </si>
-  <si>
-    <t>27/07</t>
-  </si>
-  <si>
-    <t>28/07</t>
-  </si>
-  <si>
-    <t>SU24SE025_GSU35 at P.005</t>
+    <t>SE1824-IoT102t at P.005</t>
+  </si>
+  <si>
+    <t>05/08</t>
+  </si>
+  <si>
+    <t>06/08</t>
+  </si>
+  <si>
+    <t>07/08</t>
+  </si>
+  <si>
+    <t>08/08</t>
+  </si>
+  <si>
+    <t>09/08</t>
+  </si>
+  <si>
+    <t>10/08</t>
+  </si>
+  <si>
+    <t>11/08</t>
   </si>
 </sst>
 </file>
@@ -351,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -440,6 +437,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -782,7 +782,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -814,29 +814,29 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -945,15 +945,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="9.375" customWidth="1"/>
+    <col min="2" max="2" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="22.375" customWidth="1"/>
+    <col min="6" max="8" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
@@ -961,7 +963,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -976,13 +978,15 @@
       <c r="K1" s="31"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="18"/>
+      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -996,10 +1000,10 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1016,10 +1020,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="18"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1035,8 +1039,8 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
+      <c r="A5" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1054,7 +1058,9 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1072,7 +1078,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1090,7 +1096,9 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1107,11 +1115,9 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>11</v>
-      </c>
+      <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="19"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
@@ -1131,9 +1137,7 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1177,9 +1181,7 @@
       <c r="R12" s="12"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1201,9 +1203,7 @@
       <c r="R13" s="4"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1268,7 +1268,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="1"/>
       <c r="J17" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
